--- a/Data/aearep-104/candidatepackages.xlsx
+++ b/Data/aearep-104/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Figure7b.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
 </sst>
 </file>
@@ -151,7 +148,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -163,10 +160,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C3">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D3"/>
     </row>
@@ -175,10 +172,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C4">
-        <v>0.23010610044002533</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D4"/>
     </row>
@@ -187,10 +184,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="C5">
-        <v>0.47181698679924011</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D5"/>
     </row>
@@ -199,10 +196,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1745</v>
+        <v>1937</v>
       </c>
       <c r="C6">
-        <v>0.57858091592788696</v>
+        <v>0.64033055305480957</v>
       </c>
       <c r="D6"/>
     </row>
@@ -211,10 +208,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C7">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D7"/>
     </row>
@@ -224,7 +221,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -315,14 +312,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>